--- a/Тест кейс классы эквивалентности.xlsx
+++ b/Тест кейс классы эквивалентности.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lord_\Documents\GitHub\Home-work-repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF94C26-B4FF-4E30-98BB-E976549F6D06}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,8 +21,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Александр Кобченко</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{DEC255D6-74B5-4C93-BBE9-B635F88FBBF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Александр Кобченко:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+не надо указывать про класс, это в тестировании это называется классом, а в тест-кейсах лучше использовать термины бизнес-логики</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{F484FC10-B2E3-4D25-9F58-B839442099FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Александр Кобченко:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+не надо указывать "класс"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
   <si>
     <t>Test ID</t>
   </si>
@@ -81,9 +149,6 @@
     <t>Проверить оторажение  смартфонов со слабым аккумулятором</t>
   </si>
   <si>
-    <t>Проверить вывод на экран списка(класса) дешевых смартфонов,с помощью фильтра "цена"</t>
-  </si>
-  <si>
     <t>Проверить вывод на экран списка(класса) дорогих смартфонов,с помощью фильтра "цена"</t>
   </si>
   <si>
@@ -96,9 +161,6 @@
     <t>Проверить оторажение  смартфонов с мощным аккумулятором</t>
   </si>
   <si>
-    <t>Проверить вывод на экран списка(класса) смартфонов с маленькой емкостью аккумулятора,с помощью фильтра "аккумулятор"</t>
-  </si>
-  <si>
     <t>Проверить вывод на экран списка(класса) смартфонов с самой большой емкостью аккумулятора,с помощью фильтра "аккумулятор"</t>
   </si>
   <si>
@@ -148,13 +210,73 @@
   </si>
   <si>
     <t>аккумулятор</t>
+  </si>
+  <si>
+    <r>
+      <t>Проверить вывод на экран списка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(класса</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) смартфонов с маленькой емкостью аккумулятора,с помощью фильтра "аккумулятор"</t>
+    </r>
+  </si>
+  <si>
+    <t>Аналогично выше - мы нажимаем не на класс, а на диапазон (с точки зрения бизнес логики, а классом это является уже с точки зрения тестирования)</t>
+  </si>
+  <si>
+    <r>
+      <t>Проверить вывод на экран списка(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>класса</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) дешевых смартфонов,с помощью фильтра "цена"</t>
+    </r>
+  </si>
+  <si>
+    <t>СМ КОММЕНТ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +294,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -301,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,6 +469,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,21 +496,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,7 +560,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,9 +592,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,6 +644,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -638,25 +837,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1">
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -696,55 +895,58 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="21">
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -764,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39" customHeight="1">
+    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -784,7 +986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.75" customHeight="1">
+    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -798,29 +1000,29 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" customHeight="1">
+    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -848,67 +1050,67 @@
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="21">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="E16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="21">
-      <c r="A17" s="6" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="6" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="E17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="E18" s="12" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" ht="21">
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,39 +1130,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60">
+    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="63.75" customHeight="1">
+    <row r="21" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,75 +1184,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="45">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="21">
-      <c r="A25" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="E25" s="6" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="E25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="E26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A27" s="6" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="E26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="E27" s="6" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="E27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="E28" s="12" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="E28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="21">
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,40 +1272,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="45">
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E4:G4"/>
@@ -1110,47 +1330,32 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
